--- a/pruebas/pantalla inicio.xlsx
+++ b/pruebas/pantalla inicio.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erick Chavarria\Desktop\PruebasCesar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67441B5B-B21F-4E35-AB41-270237B3FAA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD0D0E7B-D2B2-4E79-8914-6068CB7EA9FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="43">
   <si>
     <t xml:space="preserve">No </t>
   </si>
@@ -46,12 +46,6 @@
     <t>Funcionalidad</t>
   </si>
   <si>
-    <t>Proyecto</t>
-  </si>
-  <si>
-    <t>Pantalla</t>
-  </si>
-  <si>
     <t>Revision de Formularios</t>
   </si>
   <si>
@@ -136,28 +130,31 @@
     <t>Pantalla Inicio</t>
   </si>
   <si>
-    <t>mostrar galeria</t>
-  </si>
-  <si>
     <t xml:space="preserve">que la galeria muestre las imágenes correctamente. </t>
   </si>
   <si>
-    <t>cargar la pantalla de inicio donde se muestra la galeria</t>
-  </si>
-  <si>
-    <t>muestra la galeria de imágenes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">funcionalidad de botones </t>
-  </si>
-  <si>
     <t>que los funciones redirijan a la pagina correspondiente</t>
   </si>
   <si>
-    <t xml:space="preserve">hacer click en cada boton del menu </t>
-  </si>
-  <si>
-    <t xml:space="preserve">redirije a las paginas con éxito </t>
+    <t>Proyecto BlueWeb</t>
+  </si>
+  <si>
+    <t>Mostrar galeria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Funcionalidad de botones </t>
+  </si>
+  <si>
+    <t>Cargar la pantalla de inicio donde se muestra la galeria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hacer click en cada boton del menu </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Redirije a las paginas con éxito </t>
+  </si>
+  <si>
+    <t>Muestra la galeria de imágenes</t>
   </si>
 </sst>
 </file>
@@ -571,24 +568,24 @@
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
       <c r="B1" s="11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E1" s="3"/>
       <c r="I1" s="3"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B2" s="12"/>
       <c r="C2" s="12"/>
       <c r="E2" s="12" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F2" s="12"/>
       <c r="G2" s="12"/>
       <c r="I2" s="12" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J2" s="12"/>
       <c r="K2" s="12"/>
@@ -598,24 +595,24 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C3" s="5"/>
       <c r="E3" s="1">
         <v>1</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G3" s="2"/>
       <c r="I3" s="1">
         <v>1</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -623,24 +620,24 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C4" s="5"/>
       <c r="E4" s="1">
         <v>2</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G4" s="2"/>
       <c r="I4" s="1">
         <v>2</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -648,21 +645,21 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C5" s="2"/>
       <c r="E5" s="1">
         <v>3</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G5" s="2"/>
       <c r="I5" s="1">
         <v>3</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K5" s="2"/>
     </row>
@@ -671,24 +668,24 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2"/>
       <c r="E6" s="1">
         <v>4</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G6" s="2"/>
       <c r="I6" s="1">
         <v>4</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -696,21 +693,21 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C7" s="2"/>
       <c r="E7" s="1">
         <v>5</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G7" s="2"/>
       <c r="I7" s="1">
         <v>5</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K7" s="2"/>
     </row>
@@ -719,21 +716,21 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C8" s="2"/>
       <c r="E8" s="1">
         <v>6</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G8" s="2"/>
       <c r="I8" s="1">
         <v>6</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K8" s="2"/>
     </row>
@@ -742,21 +739,21 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C9" s="2"/>
       <c r="E9" s="1">
         <v>7</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G9" s="2"/>
       <c r="I9" s="1">
         <v>7</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K9" s="2"/>
     </row>
@@ -765,7 +762,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C10" s="2"/>
       <c r="E10" s="3"/>
@@ -773,7 +770,7 @@
         <v>8</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K10" s="2"/>
     </row>
@@ -813,7 +810,7 @@
   <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -826,7 +823,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
@@ -836,7 +833,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="B2" s="13"/>
       <c r="C2" s="13"/>
@@ -869,19 +866,19 @@
         <v>1</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D4" s="7">
         <v>44425</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="10" customFormat="1" ht="60" x14ac:dyDescent="0.25">
@@ -889,19 +886,19 @@
         <v>2</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D5" s="7">
         <v>44425</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
